--- a/Projeto4/epp.xlsx
+++ b/Projeto4/epp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28420,8 +28420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28888,7 +28888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
